--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_25TB_LE4G-UPG_291125.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_25TB_LE4G-UPG_291125.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất Nhập Kho 2025\Nhập kho\Tháng 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85E2B0-9201-4CAC-B62C-DDB5C492DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C7777-2EBB-44FF-8146-F2282C6ABD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
